--- a/Высокопроизводительные вычислительные комплексы/Лабораторные работы/Lab4/ВВК Лаба 4 Калькулятор.xlsx
+++ b/Высокопроизводительные вычислительные комплексы/Лабораторные работы/Lab4/ВВК Лаба 4 Калькулятор.xlsx
@@ -375,48 +375,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -672,569 +676,569 @@
   <dimension ref="A2:L56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N24" activeCellId="0" sqref="N24"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="7" t="n">
         <f aca="false">C21*C9</f>
-        <v>128000</v>
-      </c>
-      <c r="H3" s="5" t="s">
+        <v>256000</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="7" t="n">
         <f aca="false">I5+I13</f>
-        <v>637382.598975371</v>
-      </c>
-      <c r="K3" s="5" t="s">
+        <v>1072664.59625332</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="7" t="n">
         <f aca="false" t="array" ref="L3:L3">(1/I21)*(SUMPRODUCT(SQRT(C13:C15*C5:C7*C9:C11)))^2</f>
-        <v>96.624822332751</v>
+        <v>-21.3981734906773</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <f aca="false">C22*C10</f>
         <v>80</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false" t="array" ref="I5:I5">(1/B17)*(SUMPRODUCT(SQRT(C13:C15*C5:C7*C9:C11)))^2</f>
+        <v>336664.596253323</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">C23*C11</f>
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <f aca="false">C9*C21</f>
+        <v>256000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <f aca="false">F3*C13</f>
+        <v>256000</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="n">
-        <f aca="false">C22*C10</f>
-        <v>20</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="I9" s="8" t="n">
+        <f aca="false">C10*C22</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <f aca="false">F5*C14</f>
+        <v>400000</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="10" t="n">
+        <f aca="false">C11*C23</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">F7*C15</f>
+        <v>80000</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="10" t="n">
+        <f aca="false" t="array" ref="I13:I13">C3*SUMPRODUCT(C5:C7*C13:C15*C9:C11)</f>
+        <v>736000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <f aca="false">F3+F16</f>
+        <v>375851.391759998</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <f aca="false" t="array" ref="I15:I15">I7+(B19/C13)*(SQRT(C9*C5*C13)/SUMPRODUCT(SQRT(C5:C7*C9:C11*C13:C15)))</f>
+        <v>433998.211118427</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="E16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <f aca="false" t="array" ref="F16:F16">(1/(C3*B17))*SQRT(F3/C13)*SUMPRODUCT(SQRT(C21:C23*C9:C11*C13:C15))</f>
+        <v>119851.391759998</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="H17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="8" t="n">
+        <f aca="false" t="array" ref="I17:I17">I9+(B19/C14)*(SQRT(C10*C6*C14)/SUMPRODUCT(SQRT(C5:C7*C9:C11*C13:C15)))</f>
+        <v>124.499552779607</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <f aca="false">F5+F19</f>
+        <v>109.962847939999</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="11" t="n">
+        <v>500000</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="E19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <f aca="false" t="array" ref="F19:F19">(1/(C3*B17))*SQRT(F5/C14)*SUMPRODUCT(SQRT(C21:C23*C9:C11*C13:C15))</f>
+        <v>29.9628479399994</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <f aca="false" t="array" ref="I19:I19">I11+(B19/C15)*(SQRT(C11*C7*C15)/SUMPRODUCT(SQRT(C5:C7*C9:C11*C13:C15)))</f>
+        <v>1.7950402498354</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="E20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="H20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <f aca="false">C3*C5</f>
+        <v>16</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <f aca="false">F7+F22</f>
+        <v>1.46998964793328</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6" t="n">
-        <f aca="false" t="array" ref="I5:I5">(1/B17)*(SUMPRODUCT(SQRT(C13:C15*C5:C7*C9:C11)))^2</f>
-        <v>399382.598975371</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="I21" s="7" t="n">
+        <f aca="false">B19-I13</f>
+        <v>-236000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <f aca="false">C3*C6</f>
         <v>16</v>
       </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <f aca="false">C23*C11</f>
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <f aca="false">C9*C21</f>
-        <v>128000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <f aca="false">F3*C13</f>
-        <v>128000</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <f aca="false">C10*C22</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <f aca="false">F5*C14</f>
-        <v>100000</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="9" t="n">
-        <f aca="false">C11*C23</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <f aca="false">F7*C15</f>
-        <v>10000</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="9" t="n">
-        <f aca="false" t="array" ref="I13:I13">C3*SUMPRODUCT(C5:C7*C13:C15*C9:C11)</f>
-        <v>238000</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <f aca="false">F3+F16</f>
-        <v>312609.448419896</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <f aca="false" t="array" ref="I15:I15">I7+(B19/C13)*(SQRT(C9*C5*C13)/SUMPRODUCT(SQRT(C5:C7*C9:C11*C13:C15)))</f>
-        <v>266671.125552429</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="E16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <f aca="false" t="array" ref="F16:F16">(1/(C3*B17))*SQRT(F3/C13)*SUMPRODUCT(SQRT(C21:C23*C9:C11*C13:C15))</f>
-        <v>184609.448419896</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="E17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="H17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="7" t="n">
-        <f aca="false" t="array" ref="I17:I17">I9+(B19/C14)*(SQRT(C10*C6*C14)/SUMPRODUCT(SQRT(C5:C7*C9:C11*C13:C15)))</f>
-        <v>44.5138233082233</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="E18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <f aca="false">F5+F19</f>
-        <v>52.6346482122042</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="10" t="n">
-        <v>300000</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="E19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <f aca="false" t="array" ref="F19:F19">(1/(C3*B17))*SQRT(F5/C14)*SUMPRODUCT(SQRT(C21:C23*C9:C11*C13:C15))</f>
-        <v>32.6346482122042</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <f aca="false" t="array" ref="I19:I19">I11+(B19/C15)*(SQRT(C11*C7*C15)/SUMPRODUCT(SQRT(C5:C7*C9:C11*C13:C15)))</f>
-        <v>0.487597579064548</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="E20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="H20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <f aca="false">C3*C5</f>
-        <v>8</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <f aca="false">F7+F22</f>
-        <v>0.615999094944536</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <f aca="false">B19-I13</f>
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <f aca="false">C3*C6</f>
-        <v>4</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="F22" s="7" t="n">
         <f aca="false" t="array" ref="F22:F22">(1/(C3*B17))*SQRT(F7/C15)*SUMPRODUCT(SQRT(C21:C23*C9:C11*C13:C15))</f>
-        <v>0.515999094944536</v>
+        <v>0.669989647933283</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="7" t="n">
         <f aca="false">C3*C7</f>
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>85</v>
       </c>
     </row>
